--- a/database/2024-mens-copa-america.xlsx
+++ b/database/2024-mens-copa-america.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bruceoberg/code/soccer-tourney-poster/tournaments/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bruceoberg/code/soccer-tourney-poster/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D6B42EB-0E87-A44D-8E23-0FC9C50D40AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1137324D-677E-5547-AF30-5201C9D59000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="780" windowWidth="25780" windowHeight="13980" xr2:uid="{51C3DE88-701F-4CAC-8963-452186F7FFBA}"/>
   </bookViews>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="405">
   <si>
     <t>A1</t>
   </si>
@@ -374,9 +374,6 @@
     <t>Charlotte, NC</t>
   </si>
   <si>
-    <t>Copa America 2024 in AU/NZ</t>
-  </si>
-  <si>
     <t>Copa 2024 Schedule &amp; Score Card</t>
   </si>
   <si>
@@ -395,9 +392,6 @@
     <t>Copa America 2024 in de VS</t>
   </si>
   <si>
-    <t>コパ・アメリカ 2024 in USA</t>
-  </si>
-  <si>
     <t>کوپا آمریکا 2024 آمریکا</t>
   </si>
   <si>
@@ -416,30 +410,15 @@
     <t>Copa 2024 Schema &amp; Scorekaart</t>
   </si>
   <si>
-    <t>コパ 2024 スケジュールとスコアカード</t>
-  </si>
-  <si>
     <t>برنامه و کارت امتیازات کوپا 2024</t>
   </si>
   <si>
     <t>EE.UU</t>
   </si>
   <si>
-    <t>Stati Uniti d'America</t>
-  </si>
-  <si>
-    <t>Etats-Unis</t>
-  </si>
-  <si>
     <t>VS</t>
   </si>
   <si>
-    <t>アメリカ合衆国</t>
-  </si>
-  <si>
-    <t>ایالات متحده آمریکا</t>
-  </si>
-  <si>
     <t>Atlanta, Georgia</t>
   </si>
   <si>
@@ -1287,6 +1266,21 @@
   </si>
   <si>
     <t>America/New_York</t>
+  </si>
+  <si>
+    <t>Copa America 2024 in USA</t>
+  </si>
+  <si>
+    <t>米国</t>
+  </si>
+  <si>
+    <t>コパ 2024 日程・スコア</t>
+  </si>
+  <si>
+    <t>コパ・アメリカ 2024 米国</t>
+  </si>
+  <si>
+    <t>آمریکا</t>
   </si>
 </sst>
 </file>
@@ -2397,7 +2391,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2447,28 +2441,28 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>400</v>
       </c>
       <c r="C2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" t="s">
         <v>104</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>105</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>106</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>107</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>403</v>
+      </c>
+      <c r="I2" t="s">
         <v>108</v>
-      </c>
-      <c r="H2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -2476,28 +2470,28 @@
         <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" t="s">
         <v>111</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>112</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>113</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
+        <v>402</v>
+      </c>
+      <c r="I3" t="s">
         <v>114</v>
-      </c>
-      <c r="G3" t="s">
-        <v>115</v>
-      </c>
-      <c r="H3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I3" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -2508,33 +2502,33 @@
         <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D4" t="s">
-        <v>119</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>120</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
         <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="H4" t="s">
-        <v>122</v>
+        <v>401</v>
       </c>
       <c r="I4" t="s">
-        <v>123</v>
+        <v>404</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="B5" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -2545,13 +2539,13 @@
         <v>88</v>
       </c>
       <c r="C6" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D6" t="s">
         <v>88</v>
       </c>
       <c r="E6" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="F6" t="s">
         <v>88</v>
@@ -2560,10 +2554,10 @@
         <v>88</v>
       </c>
       <c r="H6" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="I6" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -2574,25 +2568,25 @@
         <v>89</v>
       </c>
       <c r="C7" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D7" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="E7" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F7" t="s">
         <v>89</v>
       </c>
       <c r="G7" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="H7" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="I7" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -2603,25 +2597,25 @@
         <v>90</v>
       </c>
       <c r="C8" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D8" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E8" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F8" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="G8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="H8" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="I8" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -2635,22 +2629,22 @@
         <v>91</v>
       </c>
       <c r="D9" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E9" t="s">
         <v>91</v>
       </c>
       <c r="F9" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="G9" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="H9" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="I9" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -2661,25 +2655,25 @@
         <v>92</v>
       </c>
       <c r="C10" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D10" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E10" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F10" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G10" t="s">
         <v>92</v>
       </c>
       <c r="H10" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I10" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2690,25 +2684,25 @@
         <v>93</v>
       </c>
       <c r="C11" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D11" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E11" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="F11" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="G11" t="s">
         <v>93</v>
       </c>
       <c r="H11" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="I11" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -2719,25 +2713,25 @@
         <v>94</v>
       </c>
       <c r="C12" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D12" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E12" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="F12" t="s">
         <v>94</v>
       </c>
       <c r="G12" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="H12" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="I12" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -2748,25 +2742,25 @@
         <v>95</v>
       </c>
       <c r="C13" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="D13" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E13" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="F13" t="s">
         <v>95</v>
       </c>
       <c r="G13" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="H13" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="I13" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -2777,13 +2771,13 @@
         <v>96</v>
       </c>
       <c r="C14" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D14" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="E14" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F14" t="s">
         <v>96</v>
@@ -2792,10 +2786,10 @@
         <v>96</v>
       </c>
       <c r="H14" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="I14" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -2806,13 +2800,13 @@
         <v>97</v>
       </c>
       <c r="C15" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D15" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="E15" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="F15" t="s">
         <v>97</v>
@@ -2821,10 +2815,10 @@
         <v>97</v>
       </c>
       <c r="H15" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="I15" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -2835,13 +2829,13 @@
         <v>98</v>
       </c>
       <c r="C16" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D16" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="E16" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="F16" t="s">
         <v>98</v>
@@ -2850,10 +2844,10 @@
         <v>98</v>
       </c>
       <c r="H16" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="I16" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -2864,25 +2858,25 @@
         <v>99</v>
       </c>
       <c r="C17" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D17" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E17" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="F17" t="s">
         <v>99</v>
       </c>
       <c r="G17" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="H17" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="I17" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -2893,13 +2887,13 @@
         <v>100</v>
       </c>
       <c r="C18" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D18" t="s">
         <v>100</v>
       </c>
       <c r="E18" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="F18" t="s">
         <v>100</v>
@@ -2908,10 +2902,10 @@
         <v>100</v>
       </c>
       <c r="H18" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="I18" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -2925,10 +2919,10 @@
         <v>101</v>
       </c>
       <c r="D19" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="E19" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="F19" t="s">
         <v>101</v>
@@ -2937,10 +2931,10 @@
         <v>101</v>
       </c>
       <c r="H19" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="I19" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -3598,10 +3592,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C30" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D30" s="1">
         <v>45483</v>
@@ -3619,10 +3613,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C31" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D31" s="1">
         <v>45484</v>
@@ -3640,10 +3634,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C32" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D32" s="1">
         <v>45487</v>
@@ -3661,10 +3655,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C33" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D33" s="1">
         <v>45488</v>
@@ -3889,10 +3883,10 @@
         <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="J2" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -3911,7 +3905,7 @@
         <v>71</v>
       </c>
       <c r="B4" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="J4" t="s">
         <v>73</v>
@@ -3922,7 +3916,7 @@
         <v>72</v>
       </c>
       <c r="B5" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="J5" t="s">
         <v>70</v>
@@ -3964,40 +3958,40 @@
         <v>24</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="F1" s="20" t="s">
         <v>28</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="J1" s="20" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="L1" s="20" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="M1" s="20" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -4011,13 +4005,13 @@
         <v>45463.833333333336</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="G2" s="2">
         <f>INDEX('#venues'!$A$2:$A$15,MATCH('#matches'!$F2,'#venues'!$B$2:$B$15,0))</f>
@@ -4059,13 +4053,13 @@
         <v>45464.791666666664</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="G3" s="5">
         <f>INDEX('#venues'!$A$2:$A$15,MATCH('#matches'!$F3,'#venues'!$B$2:$B$15,0))</f>
@@ -4107,13 +4101,13 @@
         <v>45465.833333333336</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="G4" s="2">
         <f>INDEX('#venues'!$A$2:$A$15,MATCH('#matches'!$F4,'#venues'!$B$2:$B$15,0))</f>
@@ -4155,13 +4149,13 @@
         <v>45465.625</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="G5" s="5">
         <f>INDEX('#venues'!$A$2:$A$15,MATCH('#matches'!$F5,'#venues'!$B$2:$B$15,0))</f>
@@ -4206,10 +4200,10 @@
         <v>27</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="G6" s="2">
         <f>INDEX('#venues'!$A$2:$A$15,MATCH('#matches'!$F6,'#venues'!$B$2:$B$15,0))</f>
@@ -4251,13 +4245,13 @@
         <v>45466.875</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="G7" s="5">
         <f>INDEX('#venues'!$A$2:$A$15,MATCH('#matches'!$F7,'#venues'!$B$2:$B$15,0))</f>
@@ -4299,13 +4293,13 @@
         <v>45467.75</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="G8" s="2">
         <f>INDEX('#venues'!$A$2:$A$15,MATCH('#matches'!$F8,'#venues'!$B$2:$B$15,0))</f>
@@ -4341,19 +4335,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C9" s="7">
         <v>45467.708333333336</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="G9" s="5">
         <f>INDEX('#venues'!$A$2:$A$15,MATCH('#matches'!$F9,'#venues'!$B$2:$B$15,0))</f>
@@ -4395,13 +4389,13 @@
         <v>45468.875</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="G10" s="2">
         <f>INDEX('#venues'!$A$2:$A$15,MATCH('#matches'!$F10,'#venues'!$B$2:$B$15,0))</f>
@@ -4443,13 +4437,13 @@
         <v>45468.708333333336</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="G11" s="5">
         <f>INDEX('#venues'!$A$2:$A$15,MATCH('#matches'!$F11,'#venues'!$B$2:$B$15,0))</f>
@@ -4491,13 +4485,13 @@
         <v>45469.75</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="G12" s="2">
         <f>INDEX('#venues'!$A$2:$A$15,MATCH('#matches'!$F12,'#venues'!$B$2:$B$15,0))</f>
@@ -4539,13 +4533,13 @@
         <v>45469.625</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="G13" s="5">
         <f>INDEX('#venues'!$A$2:$A$15,MATCH('#matches'!$F13,'#venues'!$B$2:$B$15,0))</f>
@@ -4587,13 +4581,13 @@
         <v>45470.75</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="G14" s="2">
         <f>INDEX('#venues'!$A$2:$A$15,MATCH('#matches'!$F14,'#venues'!$B$2:$B$15,0))</f>
@@ -4635,13 +4629,13 @@
         <v>45470.875</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="G15" s="5">
         <f>INDEX('#venues'!$A$2:$A$15,MATCH('#matches'!$F15,'#venues'!$B$2:$B$15,0))</f>
@@ -4683,13 +4677,13 @@
         <v>45471.75</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="G16" s="2">
         <f>INDEX('#venues'!$A$2:$A$15,MATCH('#matches'!$F16,'#venues'!$B$2:$B$15,0))</f>
@@ -4731,13 +4725,13 @@
         <v>45471.625</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G17" s="5">
         <f>INDEX('#venues'!$A$2:$A$15,MATCH('#matches'!$F17,'#venues'!$B$2:$B$15,0))</f>
@@ -4779,13 +4773,13 @@
         <v>45472.833333333336</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="G18" s="2">
         <f>INDEX('#venues'!$A$2:$A$15,MATCH('#matches'!$F18,'#venues'!$B$2:$B$15,0))</f>
@@ -4827,13 +4821,13 @@
         <v>45472.833333333336</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="G19" s="5">
         <f>INDEX('#venues'!$A$2:$A$15,MATCH('#matches'!$F19,'#venues'!$B$2:$B$15,0))</f>
@@ -4875,13 +4869,13 @@
         <v>45473.708333333336</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G20" s="2">
         <f>INDEX('#venues'!$A$2:$A$15,MATCH('#matches'!$F20,'#venues'!$B$2:$B$15,0))</f>
@@ -4923,13 +4917,13 @@
         <v>45473.791666666664</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="G21" s="5">
         <f>INDEX('#venues'!$A$2:$A$15,MATCH('#matches'!$F21,'#venues'!$B$2:$B$15,0))</f>
@@ -4974,10 +4968,10 @@
         <v>27</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="G22" s="2">
         <f>INDEX('#venues'!$A$2:$A$15,MATCH('#matches'!$F22,'#venues'!$B$2:$B$15,0))</f>
@@ -5019,13 +5013,13 @@
         <v>45474.875</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="G23" s="5">
         <f>INDEX('#venues'!$A$2:$A$15,MATCH('#matches'!$F23,'#venues'!$B$2:$B$15,0))</f>
@@ -5067,13 +5061,13 @@
         <v>45475.75</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="G24" s="2">
         <f>INDEX('#venues'!$A$2:$A$15,MATCH('#matches'!$F24,'#venues'!$B$2:$B$15,0))</f>
@@ -5115,13 +5109,13 @@
         <v>45475.833333333336</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="G25" s="5">
         <f>INDEX('#venues'!$A$2:$A$15,MATCH('#matches'!$F25,'#venues'!$B$2:$B$15,0))</f>
@@ -5157,19 +5151,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C26" s="4">
         <v>45477.833333333336</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="G26" s="2">
         <f>INDEX('#venues'!$A$2:$A$15,MATCH('#matches'!$F26,'#venues'!$B$2:$B$15,0))</f>
@@ -5201,13 +5195,13 @@
         <v>45478.833333333336</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="G27" s="5">
         <f>INDEX('#venues'!$A$2:$A$15,MATCH('#matches'!$F27,'#venues'!$B$2:$B$15,0))</f>
@@ -5239,13 +5233,13 @@
         <v>45479.75</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="G28" s="2">
         <f>INDEX('#venues'!$A$2:$A$15,MATCH('#matches'!$F28,'#venues'!$B$2:$B$15,0))</f>
@@ -5277,13 +5271,13 @@
         <v>45479.625</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G29" s="5">
         <f>INDEX('#venues'!$A$2:$A$15,MATCH('#matches'!$F29,'#venues'!$B$2:$B$15,0))</f>
@@ -5311,19 +5305,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C30" s="4">
         <v>45482.833333333336</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="G30" s="2">
         <f>INDEX('#venues'!$A$2:$A$15,MATCH('#matches'!$F30,'#venues'!$B$2:$B$15,0))</f>
@@ -5336,10 +5330,10 @@
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="M30" s="18">
         <f>'#matches'!$C30+'#matches'!$H30</f>
@@ -5355,13 +5349,13 @@
         <v>45483.833333333336</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="G31" s="5">
         <f>INDEX('#venues'!$A$2:$A$15,MATCH('#matches'!$F31,'#venues'!$B$2:$B$15,0))</f>
@@ -5374,10 +5368,10 @@
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="M31" s="19">
         <f>'#matches'!$C31+'#matches'!$H31</f>
@@ -5389,19 +5383,19 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C32" s="4">
         <v>45486.833333333336</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="G32" s="2">
         <f>INDEX('#venues'!$A$2:$A$15,MATCH('#matches'!$F32,'#venues'!$B$2:$B$15,0))</f>
@@ -5414,10 +5408,10 @@
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="M32" s="18">
         <f>'#matches'!$C32+'#matches'!$H32</f>
@@ -5429,19 +5423,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C33" s="7">
         <v>45487.833333333336</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="G33" s="5">
         <f>INDEX('#venues'!$A$2:$A$15,MATCH('#matches'!$F33,'#venues'!$B$2:$B$15,0))</f>
@@ -5454,10 +5448,10 @@
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
       <c r="K33" s="5" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="M33" s="19">
         <f>'#matches'!$C33+'#matches'!$H33</f>
@@ -5498,7 +5492,7 @@
         <v>57</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -5721,647 +5715,647 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>27</v>
@@ -6369,34 +6363,34 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -6427,10 +6421,10 @@
         <v>26</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -6438,7 +6432,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C2" s="12">
         <f>TIME(4,0,0)</f>
@@ -6450,7 +6444,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C3" s="10">
         <f>TIME(5,0,0)</f>
@@ -6462,7 +6456,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C4" s="8">
         <f>TIME(7,0,0)</f>
@@ -6474,7 +6468,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C5" s="10">
         <f>TIME(5,0,0)</f>
@@ -6486,7 +6480,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C6" s="8">
         <f>TIME(4,0,0)</f>
@@ -6498,7 +6492,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="C7" s="10">
         <f>TIME(7,0,0)</f>
@@ -6510,7 +6504,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C8" s="8">
         <f>TIME(5,0,0)</f>
@@ -6522,7 +6516,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C9" s="10">
         <f>TIME(4,0,0)</f>
@@ -6534,7 +6528,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C10" s="8">
         <f>TIME(7,0,0)</f>
@@ -6546,7 +6540,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C11" s="10">
         <f>TIME(7,0,0)</f>
@@ -6558,7 +6552,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C12" s="8">
         <f>TIME(4,0,0)</f>
@@ -6570,7 +6564,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C13" s="10">
         <f>TIME(5,0,0)</f>
@@ -6582,7 +6576,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C14" s="8">
         <f>TIME(5,0,0)</f>
@@ -6594,7 +6588,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C15" s="10">
         <f>TIME(4,0,0)</f>
@@ -6626,7 +6620,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D1" t="str" cm="1">
         <f t="array" ref="D1:D14">_xlfn.UNIQUE(A1:A25)</f>
@@ -6642,7 +6636,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D2" t="str">
         <v>Arlington, TX (AT&amp;T Stadium)</v>
@@ -6657,7 +6651,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D3" t="str">
         <v>Santa Clara, CA (Levi's Stadium)</v>
@@ -6672,7 +6666,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D4" t="str">
         <v>Houston, TX (NRG Stadium)</v>
@@ -6687,7 +6681,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D5" t="str">
         <v>Miami, FL (Hard Rock Stadium)</v>
@@ -6702,7 +6696,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="D6" t="str">
         <v>Inglewood, CA (SoFi Stadium)</v>
@@ -6717,7 +6711,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D7" t="str">
         <v>Kansas City, KS (Children's Mercy Park)</v>
@@ -6732,7 +6726,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D8" t="str">
         <v>East Rutherford, NJ (MetLife Stadium)</v>
@@ -6747,7 +6741,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D9" t="str">
         <v>Las Vegas, NV (Allegiant Stadium)</v>
@@ -6762,7 +6756,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="D10" t="str">
         <v>Glendale, AZ (State Farm Stadium)</v>
@@ -6777,7 +6771,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="D11" t="str">
         <v>Orlando, FL (Exploria Stadium)</v>
@@ -6792,7 +6786,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D12" t="str">
         <v>Austin, TX (Q2 Stadium)</v>
@@ -6807,7 +6801,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D13" t="str">
         <v>Kansas City, MO (Arrowhead Stadium)</v>
@@ -6822,7 +6816,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="D14" t="str">
         <v>Charlotte, NC (Bank of America Stadium)</v>
@@ -6837,57 +6831,57 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
